--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F8-Asgr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F8-Asgr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8546833333333334</v>
+        <v>4.713280333333334</v>
       </c>
       <c r="H2">
-        <v>2.56405</v>
+        <v>14.139841</v>
       </c>
       <c r="I2">
-        <v>0.3097546281380015</v>
+        <v>0.6942627767023021</v>
       </c>
       <c r="J2">
-        <v>0.3097546281380014</v>
+        <v>0.6942627767023022</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4418676666666666</v>
+        <v>0.9914603333333334</v>
       </c>
       <c r="N2">
-        <v>1.325603</v>
+        <v>2.974381</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.3776569302388889</v>
+        <v>4.673030490380111</v>
       </c>
       <c r="R2">
-        <v>3.398912372149999</v>
+        <v>42.05727441342101</v>
       </c>
       <c r="S2">
-        <v>0.3097546281380015</v>
+        <v>0.6942627767023021</v>
       </c>
       <c r="T2">
-        <v>0.3097546281380014</v>
+        <v>0.6942627767023022</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>3.753828</v>
       </c>
       <c r="I3">
-        <v>0.4534878790327871</v>
+        <v>0.1843120478188439</v>
       </c>
       <c r="J3">
-        <v>0.4534878790327871</v>
+        <v>0.1843120478188439</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,10 +617,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.4418676666666666</v>
+        <v>0.9914603333333334</v>
       </c>
       <c r="N3">
-        <v>1.325603</v>
+        <v>2.974381</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.552898406476</v>
+        <v>1.240590520052</v>
       </c>
       <c r="R3">
-        <v>4.976085658284</v>
+        <v>11.165314680468</v>
       </c>
       <c r="S3">
-        <v>0.4534878790327871</v>
+        <v>0.1843120478188439</v>
       </c>
       <c r="T3">
-        <v>0.4534878790327871</v>
+        <v>0.1843120478188439</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4843330000000001</v>
+        <v>0.6263116666666667</v>
       </c>
       <c r="H4">
-        <v>1.452999</v>
+        <v>1.878935</v>
       </c>
       <c r="I4">
-        <v>0.1755321327313773</v>
+        <v>0.09225525452111802</v>
       </c>
       <c r="J4">
-        <v>0.1755321327313773</v>
+        <v>0.09225525452111803</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,10 +679,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4418676666666666</v>
+        <v>0.9914603333333334</v>
       </c>
       <c r="N4">
-        <v>1.325603</v>
+        <v>2.974381</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.2140110925996667</v>
+        <v>0.620963173803889</v>
       </c>
       <c r="R4">
-        <v>1.926099833397</v>
+        <v>5.588668564235</v>
       </c>
       <c r="S4">
-        <v>0.1755321327313773</v>
+        <v>0.09225525452111802</v>
       </c>
       <c r="T4">
-        <v>0.1755321327313773</v>
+        <v>0.09225525452111803</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1689346666666667</v>
+        <v>0.1980316666666667</v>
       </c>
       <c r="H5">
-        <v>0.506804</v>
+        <v>0.594095</v>
       </c>
       <c r="I5">
-        <v>0.06122536009783416</v>
+        <v>0.02916992095773596</v>
       </c>
       <c r="J5">
-        <v>0.06122536009783416</v>
+        <v>0.02916992095773596</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,10 +741,10 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4418676666666666</v>
+        <v>0.9914603333333334</v>
       </c>
       <c r="N5">
-        <v>1.325603</v>
+        <v>2.974381</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.0746467669791111</v>
+        <v>0.1963405422438889</v>
       </c>
       <c r="R5">
-        <v>0.671820902812</v>
+        <v>1.767064880195</v>
       </c>
       <c r="S5">
-        <v>0.06122536009783416</v>
+        <v>0.02916992095773596</v>
       </c>
       <c r="T5">
-        <v>0.06122536009783416</v>
+        <v>0.02916992095773596</v>
       </c>
     </row>
   </sheetData>
